--- a/data/raw/2-11_区別住民基本台帳人口.xlsx
+++ b/data/raw/2-11_区別住民基本台帳人口.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuuma-pro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuuma-pro/Documents/opendata/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5290147B-F0CA-BA4E-95CA-68590B0E7399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6B6782-EAF3-7241-9B02-93709265440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="24520" xr2:uid="{66F8F3EE-7B76-8443-855B-8DEE4E3139AF}"/>
+    <workbookView xWindow="66720" yWindow="-2700" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{66F8F3EE-7B76-8443-855B-8DEE4E3139AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="2-11" sheetId="1" r:id="rId1"/>
+    <sheet name="変換前データ" sheetId="1" r:id="rId1"/>
+    <sheet name="変換後サンプル" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2-11'!$A$1:$P$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">変換前データ!$A$1:$P$106</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="59">
   <si>
     <t>2-11.区別住民</t>
     <phoneticPr fontId="3"/>
@@ -367,6 +368,145 @@
     <t>泉区</t>
     <rPh sb="0" eb="2">
       <t>イズミク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>青葉区</t>
+  </si>
+  <si>
+    <t>宮城総合支所</t>
+  </si>
+  <si>
+    <t>宮城野区</t>
+  </si>
+  <si>
+    <t>若林区</t>
+  </si>
+  <si>
+    <t>太白区</t>
+  </si>
+  <si>
+    <t>泉区</t>
+  </si>
+  <si>
+    <t>秋保総合支所</t>
+  </si>
+  <si>
+    <t>日本人住民人口（男）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本人住民人口（女）</t>
+    <rPh sb="0" eb="7">
+      <t xml:space="preserve">ニホンジンジュウミンジンコウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">オンナ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外国人住民人口（男）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガイコクジン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外国人住民人口（女）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガイコクジン </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">オンナ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>宮城総合支所</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秋保総合支所</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>区名</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">クメイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>地域名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">チイキメイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>青葉区</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ネンド </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本人住民で構成する世帯</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ニホンジン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジュウミン </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">コウセイスル </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">セタイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外国人住民で構成する世帯</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガイコクジン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジュウミン </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">コウセイスル </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">セタイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本人住民と外国人住民で構成する世帯</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ニホンジン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジュウミン </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">ガイコクジン </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジュウミン </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">コウセイスル </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セタイ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -743,94 +883,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -900,6 +971,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
@@ -908,6 +1033,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1216,7 +1356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B01C7F6-6450-774F-91D3-50523BE43B30}">
   <dimension ref="A1:AD106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="83" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
@@ -1288,1761 +1430,1761 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="22" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="20" t="s">
+      <c r="K10" s="63"/>
+      <c r="L10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="68"/>
+      <c r="O10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="61" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="31"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="63"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="AD13" s="47"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="AD13" s="24"/>
     </row>
     <row r="14" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28">
         <v>499668</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="29">
         <v>490434</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="29">
         <v>7338</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="29">
         <v>1896</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="29">
         <v>1053717</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="29">
         <v>510510</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="29">
         <v>543207</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="29">
         <v>1042135</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="29">
         <v>504503</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="29">
         <v>537632</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="29">
         <v>11582</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="29">
         <v>6007</v>
       </c>
-      <c r="P14" s="52">
+      <c r="P14" s="29">
         <v>5575</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28">
         <v>505418</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="29">
         <v>495766</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="29">
         <v>7738</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="29">
         <v>1914</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="29">
         <v>1056602</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="29">
         <v>511749</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="29">
         <v>544853</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="29">
         <v>1044645</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="29">
         <v>505500</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="29">
         <v>539145</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="29">
         <v>11957</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="29">
         <v>6249</v>
       </c>
-      <c r="P15" s="52">
+      <c r="P15" s="29">
         <v>5708</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28">
         <v>511253</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="29">
         <v>501068</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="29">
         <v>8231</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="29">
         <v>1954</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="29">
         <v>1058689</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="29">
         <v>512201</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="29">
         <v>546488</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="29">
         <v>1046176</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="29">
         <v>505622</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="29">
         <v>540554</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="29">
         <v>12513</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="29">
         <v>6579</v>
       </c>
-      <c r="P16" s="52">
+      <c r="P16" s="29">
         <v>5934</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28">
         <v>518187</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="29">
         <v>506832</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="29">
         <v>9353</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="29">
         <v>2002</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="29">
         <v>1061177</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="29">
         <v>513300</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="29">
         <v>547877</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="29">
         <v>1047422</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="29">
         <v>506058</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="29">
         <v>541364</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="29">
         <v>13755</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="29">
         <v>7242</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="29">
         <v>6513</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28">
         <v>525168</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="29">
         <v>514420</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="29">
         <v>8758</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="29">
         <v>1990</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="29">
         <v>1063169</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="29">
         <v>514028</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="29">
         <v>549141</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="29">
         <v>1050201</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="29">
         <v>507187</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="29">
         <v>543014</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="29">
         <v>12968</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="29">
         <v>6841</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="29">
         <v>6127</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28">
         <v>530185</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="29">
         <v>520746</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="29">
         <v>7426</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="29">
         <v>2013</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="29">
         <v>1062285</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="29">
         <v>513077</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="29">
         <v>549208</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="29">
         <v>1050620</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="29">
         <v>507119</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="29">
         <v>543501</v>
       </c>
-      <c r="N19" s="52">
+      <c r="N19" s="29">
         <v>11665</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="29">
         <v>5958</v>
       </c>
-      <c r="P19" s="52">
+      <c r="P19" s="29">
         <v>5707</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28">
         <v>537698</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="29">
         <v>526117</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="29">
         <v>9557</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="29">
         <v>2024</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="29">
         <v>1063262</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="29">
         <v>513701</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="29">
         <v>549561</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="29">
         <v>1049241</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="29">
         <v>506398</v>
       </c>
-      <c r="M20" s="52">
+      <c r="M20" s="29">
         <v>542843</v>
       </c>
-      <c r="N20" s="52">
+      <c r="N20" s="29">
         <v>14021</v>
       </c>
-      <c r="O20" s="52">
+      <c r="O20" s="29">
         <v>7303</v>
       </c>
-      <c r="P20" s="52">
+      <c r="P20" s="29">
         <v>6718</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55" t="s">
+    <row r="21" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34">
         <v>543001</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="35">
         <v>530505</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="35">
         <v>10425</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="35">
         <v>2071</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="35">
         <v>1061450</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="35">
         <v>512536</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="35">
         <v>548914</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="35">
         <v>1046341</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="35">
         <v>504654</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="35">
         <v>541687</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="35">
         <v>15109</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="35">
         <v>7882</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="35">
         <v>7227</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="61">
+      <c r="C24" s="27"/>
+      <c r="D24" s="38">
         <v>148262</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="40">
         <v>143681</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="40">
         <v>3922</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="40">
         <v>659</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="40">
         <v>290346</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="40">
         <v>138908</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="40">
         <v>151438</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="40">
         <v>284739</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="40">
         <v>135840</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M24" s="40">
         <v>148899</v>
       </c>
-      <c r="N24" s="63">
+      <c r="N24" s="40">
         <v>5607</v>
       </c>
-      <c r="O24" s="63">
+      <c r="O24" s="40">
         <v>3068</v>
       </c>
-      <c r="P24" s="63">
+      <c r="P24" s="40">
         <v>2539</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="61">
+      <c r="C25" s="27"/>
+      <c r="D25" s="38">
         <v>149599</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="40">
         <v>144875</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="40">
         <v>4078</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="40">
         <v>646</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="40">
         <v>291110</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="40">
         <v>139420</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="40">
         <v>151690</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="40">
         <v>285351</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="40">
         <v>136266</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="40">
         <v>149085</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="40">
         <v>5759</v>
       </c>
-      <c r="O25" s="63">
+      <c r="O25" s="40">
         <v>3154</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P25" s="40">
         <v>2605</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="61">
+      <c r="C26" s="27"/>
+      <c r="D26" s="38">
         <v>150636</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="40">
         <v>145633</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="40">
         <v>4341</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="40">
         <v>662</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="40">
         <v>291326</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="40">
         <v>139353</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="40">
         <v>151973</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="40">
         <v>285298</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="40">
         <v>136046</v>
       </c>
-      <c r="M26" s="63">
+      <c r="M26" s="40">
         <v>149252</v>
       </c>
-      <c r="N26" s="63">
+      <c r="N26" s="40">
         <v>6028</v>
       </c>
-      <c r="O26" s="63">
+      <c r="O26" s="40">
         <v>3307</v>
       </c>
-      <c r="P26" s="63">
+      <c r="P26" s="40">
         <v>2721</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="61">
+      <c r="C27" s="27"/>
+      <c r="D27" s="38">
         <v>152326</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="40">
         <v>146698</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="40">
         <v>4950</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="40">
         <v>678</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="40">
         <v>291702</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="40">
         <v>139606</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="40">
         <v>152096</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="40">
         <v>285009</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="40">
         <v>136012</v>
       </c>
-      <c r="M27" s="63">
+      <c r="M27" s="40">
         <v>148997</v>
       </c>
-      <c r="N27" s="63">
+      <c r="N27" s="40">
         <v>6693</v>
       </c>
-      <c r="O27" s="63">
+      <c r="O27" s="40">
         <v>3594</v>
       </c>
-      <c r="P27" s="63">
+      <c r="P27" s="40">
         <v>3099</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="61">
+      <c r="C28" s="27"/>
+      <c r="D28" s="38">
         <v>153849</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="40">
         <v>148705</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="40">
         <v>4453</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="40">
         <v>691</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="40">
         <v>291869</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="40">
         <v>139711</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="40">
         <v>152158</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="40">
         <v>285785</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="40">
         <v>136374</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="40">
         <v>149411</v>
       </c>
-      <c r="N28" s="63">
+      <c r="N28" s="40">
         <v>6084</v>
       </c>
-      <c r="O28" s="63">
+      <c r="O28" s="40">
         <v>3337</v>
       </c>
-      <c r="P28" s="63">
+      <c r="P28" s="40">
         <v>2747</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="61">
+      <c r="C29" s="27"/>
+      <c r="D29" s="38">
         <v>154849</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="40">
         <v>150512</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="40">
         <v>3640</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="40">
         <v>697</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="40">
         <v>291832</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="40">
         <v>139483</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="40">
         <v>152349</v>
       </c>
-      <c r="K29" s="63">
+      <c r="K29" s="40">
         <v>286592</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="40">
         <v>136692</v>
       </c>
-      <c r="M29" s="63">
+      <c r="M29" s="40">
         <v>149900</v>
       </c>
-      <c r="N29" s="63">
+      <c r="N29" s="40">
         <v>5240</v>
       </c>
-      <c r="O29" s="63">
+      <c r="O29" s="40">
         <v>2791</v>
       </c>
-      <c r="P29" s="63">
+      <c r="P29" s="40">
         <v>2449</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="61">
+      <c r="C30" s="27"/>
+      <c r="D30" s="38">
         <v>157854</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="40">
         <v>152286</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="40">
         <v>4872</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="40">
         <v>696</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="40">
         <v>293636</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="40">
         <v>140611</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="40">
         <v>153025</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="40">
         <v>287078</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="40">
         <v>137064</v>
       </c>
-      <c r="M30" s="63">
+      <c r="M30" s="40">
         <v>150014</v>
       </c>
-      <c r="N30" s="63">
+      <c r="N30" s="40">
         <v>6558</v>
       </c>
-      <c r="O30" s="63">
+      <c r="O30" s="40">
         <v>3547</v>
       </c>
-      <c r="P30" s="63">
+      <c r="P30" s="40">
         <v>3011</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55" t="s">
+    <row r="31" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57">
+      <c r="C31" s="33"/>
+      <c r="D31" s="34">
         <v>159737</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="35">
         <v>153749</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="35">
         <v>5274</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="35">
         <v>714</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="35">
         <v>294270</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="35">
         <v>140770</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="35">
         <v>153500</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="35">
         <v>287178</v>
       </c>
-      <c r="L31" s="58">
+      <c r="L31" s="35">
         <v>136998</v>
       </c>
-      <c r="M31" s="58">
+      <c r="M31" s="35">
         <v>150180</v>
       </c>
-      <c r="N31" s="58">
+      <c r="N31" s="35">
         <v>7092</v>
       </c>
-      <c r="O31" s="58">
+      <c r="O31" s="35">
         <v>3772</v>
       </c>
-      <c r="P31" s="58">
+      <c r="P31" s="35">
         <v>3320</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="61">
+      <c r="C34" s="27"/>
+      <c r="D34" s="38">
         <v>30008</v>
       </c>
-      <c r="E34" s="63">
+      <c r="E34" s="40">
         <v>29709</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="40">
         <v>177</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="40">
         <v>122</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="40">
         <v>73401</v>
       </c>
-      <c r="I34" s="63">
+      <c r="I34" s="40">
         <v>35684</v>
       </c>
-      <c r="J34" s="63">
+      <c r="J34" s="40">
         <v>37717</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="40">
         <v>73017</v>
       </c>
-      <c r="L34" s="63">
+      <c r="L34" s="40">
         <v>35496</v>
       </c>
-      <c r="M34" s="63">
+      <c r="M34" s="40">
         <v>37521</v>
       </c>
-      <c r="N34" s="63">
+      <c r="N34" s="40">
         <v>384</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="40">
         <v>188</v>
       </c>
-      <c r="P34" s="63">
+      <c r="P34" s="40">
         <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="61">
+      <c r="C35" s="27"/>
+      <c r="D35" s="38">
         <v>30514</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="40">
         <v>30212</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="40">
         <v>183</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="40">
         <v>119</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="40">
         <v>73826</v>
       </c>
-      <c r="I35" s="63">
+      <c r="I35" s="40">
         <v>35973</v>
       </c>
-      <c r="J35" s="63">
+      <c r="J35" s="40">
         <v>37853</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="40">
         <v>73430</v>
       </c>
-      <c r="L35" s="63">
+      <c r="L35" s="40">
         <v>35784</v>
       </c>
-      <c r="M35" s="63">
+      <c r="M35" s="40">
         <v>37646</v>
       </c>
-      <c r="N35" s="63">
+      <c r="N35" s="40">
         <v>396</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="40">
         <v>189</v>
       </c>
-      <c r="P35" s="63">
+      <c r="P35" s="40">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="61">
+      <c r="C36" s="27"/>
+      <c r="D36" s="38">
         <v>30888</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="40">
         <v>30579</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="40">
         <v>183</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="40">
         <v>126</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="40">
         <v>74161</v>
       </c>
-      <c r="I36" s="63">
+      <c r="I36" s="40">
         <v>36122</v>
       </c>
-      <c r="J36" s="63">
+      <c r="J36" s="40">
         <v>38039</v>
       </c>
-      <c r="K36" s="63">
+      <c r="K36" s="40">
         <v>73742</v>
       </c>
-      <c r="L36" s="63">
+      <c r="L36" s="40">
         <v>35914</v>
       </c>
-      <c r="M36" s="63">
+      <c r="M36" s="40">
         <v>37828</v>
       </c>
-      <c r="N36" s="63">
+      <c r="N36" s="40">
         <v>419</v>
       </c>
-      <c r="O36" s="63">
+      <c r="O36" s="40">
         <v>208</v>
       </c>
-      <c r="P36" s="63">
+      <c r="P36" s="40">
         <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="61">
+      <c r="C37" s="27"/>
+      <c r="D37" s="38">
         <v>31361</v>
       </c>
-      <c r="E37" s="63">
+      <c r="E37" s="40">
         <v>31004</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="40">
         <v>222</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="40">
         <v>135</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="40">
         <v>74271</v>
       </c>
-      <c r="I37" s="63">
+      <c r="I37" s="40">
         <v>36215</v>
       </c>
-      <c r="J37" s="63">
+      <c r="J37" s="40">
         <v>38056</v>
       </c>
-      <c r="K37" s="63">
+      <c r="K37" s="40">
         <v>73797</v>
       </c>
-      <c r="L37" s="63">
+      <c r="L37" s="40">
         <v>35973</v>
       </c>
-      <c r="M37" s="63">
+      <c r="M37" s="40">
         <v>37824</v>
       </c>
-      <c r="N37" s="63">
+      <c r="N37" s="40">
         <v>474</v>
       </c>
-      <c r="O37" s="63">
+      <c r="O37" s="40">
         <v>242</v>
       </c>
-      <c r="P37" s="63">
+      <c r="P37" s="40">
         <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="61">
+      <c r="C38" s="27"/>
+      <c r="D38" s="38">
         <v>31965</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="40">
         <v>31605</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="40">
         <v>223</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="40">
         <v>137</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="40">
         <v>74540</v>
       </c>
-      <c r="I38" s="63">
+      <c r="I38" s="40">
         <v>36333</v>
       </c>
-      <c r="J38" s="63">
+      <c r="J38" s="40">
         <v>38207</v>
       </c>
-      <c r="K38" s="63">
+      <c r="K38" s="40">
         <v>74053</v>
       </c>
-      <c r="L38" s="63">
+      <c r="L38" s="40">
         <v>36082</v>
       </c>
-      <c r="M38" s="63">
+      <c r="M38" s="40">
         <v>37971</v>
       </c>
-      <c r="N38" s="63">
+      <c r="N38" s="40">
         <v>487</v>
       </c>
-      <c r="O38" s="63">
+      <c r="O38" s="40">
         <v>251</v>
       </c>
-      <c r="P38" s="63">
+      <c r="P38" s="40">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="61">
+      <c r="C39" s="27"/>
+      <c r="D39" s="38">
         <v>32316</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="40">
         <v>31962</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="40">
         <v>216</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="40">
         <v>138</v>
       </c>
-      <c r="H39" s="63">
+      <c r="H39" s="40">
         <v>74547</v>
       </c>
-      <c r="I39" s="63">
+      <c r="I39" s="40">
         <v>36323</v>
       </c>
-      <c r="J39" s="63">
+      <c r="J39" s="40">
         <v>38224</v>
       </c>
-      <c r="K39" s="63">
+      <c r="K39" s="40">
         <v>74065</v>
       </c>
-      <c r="L39" s="63">
+      <c r="L39" s="40">
         <v>36083</v>
       </c>
-      <c r="M39" s="63">
+      <c r="M39" s="40">
         <v>37982</v>
       </c>
-      <c r="N39" s="63">
+      <c r="N39" s="40">
         <v>482</v>
       </c>
-      <c r="O39" s="63">
+      <c r="O39" s="40">
         <v>240</v>
       </c>
-      <c r="P39" s="63">
+      <c r="P39" s="40">
         <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="61">
+      <c r="C40" s="27"/>
+      <c r="D40" s="38">
         <v>32679</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="40">
         <v>32279</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="40">
         <v>263</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="40">
         <v>137</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="40">
         <v>74475</v>
       </c>
-      <c r="I40" s="63">
+      <c r="I40" s="40">
         <v>36290</v>
       </c>
-      <c r="J40" s="63">
+      <c r="J40" s="40">
         <v>38185</v>
       </c>
-      <c r="K40" s="63">
+      <c r="K40" s="40">
         <v>73932</v>
       </c>
-      <c r="L40" s="63">
+      <c r="L40" s="40">
         <v>36019</v>
       </c>
-      <c r="M40" s="63">
+      <c r="M40" s="40">
         <v>37913</v>
       </c>
-      <c r="N40" s="63">
+      <c r="N40" s="40">
         <v>543</v>
       </c>
-      <c r="O40" s="63">
+      <c r="O40" s="40">
         <v>271</v>
       </c>
-      <c r="P40" s="63">
+      <c r="P40" s="40">
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55" t="s">
+    <row r="41" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57">
+      <c r="C41" s="33"/>
+      <c r="D41" s="34">
         <v>32855</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="35">
         <v>32422</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="35">
         <v>291</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="35">
         <v>142</v>
       </c>
-      <c r="H41" s="58">
+      <c r="H41" s="35">
         <v>73942</v>
       </c>
-      <c r="I41" s="58">
+      <c r="I41" s="35">
         <v>36015</v>
       </c>
-      <c r="J41" s="58">
+      <c r="J41" s="35">
         <v>37927</v>
       </c>
-      <c r="K41" s="58">
+      <c r="K41" s="35">
         <v>73355</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="35">
         <v>35710</v>
       </c>
-      <c r="M41" s="58">
+      <c r="M41" s="35">
         <v>37645</v>
       </c>
-      <c r="N41" s="58">
+      <c r="N41" s="35">
         <v>587</v>
       </c>
-      <c r="O41" s="58">
+      <c r="O41" s="35">
         <v>305</v>
       </c>
-      <c r="P41" s="58">
+      <c r="P41" s="35">
         <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="61">
+      <c r="C44" s="27"/>
+      <c r="D44" s="38">
         <v>90998</v>
       </c>
-      <c r="E44" s="63">
+      <c r="E44" s="40">
         <v>89727</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="40">
         <v>930</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="40">
         <v>341</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="40">
         <v>188817</v>
       </c>
-      <c r="I44" s="63">
+      <c r="I44" s="40">
         <v>92453</v>
       </c>
-      <c r="J44" s="63">
+      <c r="J44" s="40">
         <v>96364</v>
       </c>
-      <c r="K44" s="63">
+      <c r="K44" s="40">
         <v>187119</v>
       </c>
-      <c r="L44" s="63">
+      <c r="L44" s="40">
         <v>91620</v>
       </c>
-      <c r="M44" s="63">
+      <c r="M44" s="40">
         <v>95499</v>
       </c>
-      <c r="N44" s="63">
+      <c r="N44" s="40">
         <v>1698</v>
       </c>
-      <c r="O44" s="63">
+      <c r="O44" s="40">
         <v>833</v>
       </c>
-      <c r="P44" s="63">
+      <c r="P44" s="40">
         <v>865</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="61">
+      <c r="C45" s="27"/>
+      <c r="D45" s="38">
         <v>91984</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="40">
         <v>90598</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="40">
         <v>1042</v>
       </c>
-      <c r="G45" s="63">
+      <c r="G45" s="40">
         <v>344</v>
       </c>
-      <c r="H45" s="63">
+      <c r="H45" s="40">
         <v>189011</v>
       </c>
-      <c r="I45" s="63">
+      <c r="I45" s="40">
         <v>92426</v>
       </c>
-      <c r="J45" s="63">
+      <c r="J45" s="40">
         <v>96585</v>
       </c>
-      <c r="K45" s="63">
+      <c r="K45" s="40">
         <v>187212</v>
       </c>
-      <c r="L45" s="63">
+      <c r="L45" s="40">
         <v>91537</v>
       </c>
-      <c r="M45" s="63">
+      <c r="M45" s="40">
         <v>95675</v>
       </c>
-      <c r="N45" s="63">
+      <c r="N45" s="40">
         <v>1799</v>
       </c>
-      <c r="O45" s="63">
+      <c r="O45" s="40">
         <v>889</v>
       </c>
-      <c r="P45" s="63">
+      <c r="P45" s="40">
         <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="61">
+      <c r="C46" s="27"/>
+      <c r="D46" s="38">
         <v>93196</v>
       </c>
-      <c r="E46" s="63">
+      <c r="E46" s="40">
         <v>91752</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="40">
         <v>1098</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="40">
         <v>346</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="40">
         <v>189304</v>
       </c>
-      <c r="I46" s="63">
+      <c r="I46" s="40">
         <v>92580</v>
       </c>
-      <c r="J46" s="63">
+      <c r="J46" s="40">
         <v>96724</v>
       </c>
-      <c r="K46" s="63">
+      <c r="K46" s="40">
         <v>187436</v>
       </c>
-      <c r="L46" s="63">
+      <c r="L46" s="40">
         <v>91638</v>
       </c>
-      <c r="M46" s="63">
+      <c r="M46" s="40">
         <v>95798</v>
       </c>
-      <c r="N46" s="63">
+      <c r="N46" s="40">
         <v>1868</v>
       </c>
-      <c r="O46" s="63">
+      <c r="O46" s="40">
         <v>942</v>
       </c>
-      <c r="P46" s="63">
+      <c r="P46" s="40">
         <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="61">
+      <c r="C47" s="27"/>
+      <c r="D47" s="38">
         <v>94482</v>
       </c>
-      <c r="E47" s="63">
+      <c r="E47" s="40">
         <v>92795</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="40">
         <v>1329</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="40">
         <v>358</v>
       </c>
-      <c r="H47" s="63">
+      <c r="H47" s="40">
         <v>189625</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="40">
         <v>92744</v>
       </c>
-      <c r="J47" s="63">
+      <c r="J47" s="40">
         <v>96881</v>
       </c>
-      <c r="K47" s="63">
+      <c r="K47" s="40">
         <v>187460</v>
       </c>
-      <c r="L47" s="63">
+      <c r="L47" s="40">
         <v>91657</v>
       </c>
-      <c r="M47" s="63">
+      <c r="M47" s="40">
         <v>95803</v>
       </c>
-      <c r="N47" s="63">
+      <c r="N47" s="40">
         <v>2165</v>
       </c>
-      <c r="O47" s="63">
+      <c r="O47" s="40">
         <v>1087</v>
       </c>
-      <c r="P47" s="63">
+      <c r="P47" s="40">
         <v>1078</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="61">
+      <c r="C48" s="27"/>
+      <c r="D48" s="38">
         <v>95985</v>
       </c>
-      <c r="E48" s="63">
+      <c r="E48" s="40">
         <v>94271</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="40">
         <v>1368</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="40">
         <v>346</v>
       </c>
-      <c r="H48" s="63">
+      <c r="H48" s="40">
         <v>190185</v>
       </c>
-      <c r="I48" s="63">
+      <c r="I48" s="40">
         <v>92977</v>
       </c>
-      <c r="J48" s="63">
+      <c r="J48" s="40">
         <v>97208</v>
       </c>
-      <c r="K48" s="63">
+      <c r="K48" s="40">
         <v>188025</v>
       </c>
-      <c r="L48" s="63">
+      <c r="L48" s="40">
         <v>91896</v>
       </c>
-      <c r="M48" s="63">
+      <c r="M48" s="40">
         <v>96129</v>
       </c>
-      <c r="N48" s="63">
+      <c r="N48" s="40">
         <v>2160</v>
       </c>
-      <c r="O48" s="63">
+      <c r="O48" s="40">
         <v>1081</v>
       </c>
-      <c r="P48" s="63">
+      <c r="P48" s="40">
         <v>1079</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="61">
+      <c r="C49" s="27"/>
+      <c r="D49" s="38">
         <v>96711</v>
       </c>
-      <c r="E49" s="63">
+      <c r="E49" s="40">
         <v>95190</v>
       </c>
-      <c r="F49" s="63">
+      <c r="F49" s="40">
         <v>1169</v>
       </c>
-      <c r="G49" s="63">
+      <c r="G49" s="40">
         <v>352</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="40">
         <v>189453</v>
       </c>
-      <c r="I49" s="63">
+      <c r="I49" s="40">
         <v>92407</v>
       </c>
-      <c r="J49" s="63">
+      <c r="J49" s="40">
         <v>97046</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="40">
         <v>187484</v>
       </c>
-      <c r="L49" s="63">
+      <c r="L49" s="40">
         <v>91455</v>
       </c>
-      <c r="M49" s="63">
+      <c r="M49" s="40">
         <v>96029</v>
       </c>
-      <c r="N49" s="63">
+      <c r="N49" s="40">
         <v>1969</v>
       </c>
-      <c r="O49" s="63">
+      <c r="O49" s="40">
         <v>952</v>
       </c>
-      <c r="P49" s="63">
+      <c r="P49" s="40">
         <v>1017</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="61">
+      <c r="C50" s="27"/>
+      <c r="D50" s="38">
         <v>97459</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="40">
         <v>95762</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="40">
         <v>1348</v>
       </c>
-      <c r="G50" s="63">
+      <c r="G50" s="40">
         <v>349</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="40">
         <v>188496</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="40">
         <v>91852</v>
       </c>
-      <c r="J50" s="63">
+      <c r="J50" s="40">
         <v>96644</v>
       </c>
-      <c r="K50" s="63">
+      <c r="K50" s="40">
         <v>186308</v>
       </c>
-      <c r="L50" s="63">
+      <c r="L50" s="40">
         <v>90805</v>
       </c>
-      <c r="M50" s="63">
+      <c r="M50" s="40">
         <v>95503</v>
       </c>
-      <c r="N50" s="63">
+      <c r="N50" s="40">
         <v>2188</v>
       </c>
-      <c r="O50" s="63">
+      <c r="O50" s="40">
         <v>1047</v>
       </c>
-      <c r="P50" s="63">
+      <c r="P50" s="40">
         <v>1141</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55" t="s">
+    <row r="51" spans="1:21" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57">
+      <c r="C51" s="33"/>
+      <c r="D51" s="34">
         <v>98027</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="35">
         <v>96148</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="35">
         <v>1516</v>
       </c>
-      <c r="G51" s="58">
+      <c r="G51" s="35">
         <v>363</v>
       </c>
-      <c r="H51" s="58">
+      <c r="H51" s="35">
         <v>187391</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="35">
         <v>91254</v>
       </c>
-      <c r="J51" s="58">
+      <c r="J51" s="35">
         <v>96137</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="35">
         <v>184985</v>
       </c>
-      <c r="L51" s="58">
+      <c r="L51" s="35">
         <v>90042</v>
       </c>
-      <c r="M51" s="58">
+      <c r="M51" s="35">
         <v>94943</v>
       </c>
-      <c r="N51" s="58">
+      <c r="N51" s="35">
         <v>2406</v>
       </c>
-      <c r="O51" s="58">
+      <c r="O51" s="35">
         <v>1212</v>
       </c>
-      <c r="P51" s="58">
+      <c r="P51" s="35">
         <v>1194</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15" thickBot="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="44" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3062,8 +3204,8 @@
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:21" ht="13.5" customHeight="1">
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="46"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -3099,1774 +3241,1772 @@
       </c>
     </row>
     <row r="61" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="70" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="70" t="s">
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
     </row>
     <row r="62" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="25" t="s">
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="25" t="s">
+      <c r="L62" s="14"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
     </row>
     <row r="63" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="22" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="J63" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="32"/>
-      <c r="L63" s="20" t="s">
+      <c r="K63" s="68"/>
+      <c r="L63" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M63" s="20" t="s">
+      <c r="M63" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="N63" s="32"/>
-      <c r="O63" s="21" t="s">
+      <c r="N63" s="68"/>
+      <c r="O63" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="22" t="s">
+      <c r="P63" s="61" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="31"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="63"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
     </row>
     <row r="65" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="39"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="64"/>
     </row>
     <row r="66" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
     </row>
     <row r="67" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49" t="s">
+      <c r="A67" s="25"/>
+      <c r="B67" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="51">
+      <c r="C67" s="27"/>
+      <c r="D67" s="28">
         <v>64287</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="29">
         <v>63128</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="29">
         <v>962</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="29">
         <v>197</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="29">
         <v>133793</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="29">
         <v>65540</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="29">
         <v>68253</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K67" s="29">
         <v>132441</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L67" s="29">
         <v>64801</v>
       </c>
-      <c r="M67" s="52">
+      <c r="M67" s="29">
         <v>67640</v>
       </c>
-      <c r="N67" s="52">
+      <c r="N67" s="29">
         <v>1352</v>
       </c>
-      <c r="O67" s="52">
+      <c r="O67" s="29">
         <v>739</v>
       </c>
-      <c r="P67" s="52">
+      <c r="P67" s="29">
         <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="48"/>
-      <c r="B68" s="53" t="s">
+      <c r="A68" s="25"/>
+      <c r="B68" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="51">
+      <c r="C68" s="27"/>
+      <c r="D68" s="28">
         <v>65184</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="29">
         <v>64146</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F68" s="29">
         <v>835</v>
       </c>
-      <c r="G68" s="52">
+      <c r="G68" s="29">
         <v>203</v>
       </c>
-      <c r="H68" s="52">
+      <c r="H68" s="29">
         <v>134649</v>
       </c>
-      <c r="I68" s="52">
+      <c r="I68" s="29">
         <v>65967</v>
       </c>
-      <c r="J68" s="52">
+      <c r="J68" s="29">
         <v>68682</v>
       </c>
-      <c r="K68" s="52">
+      <c r="K68" s="29">
         <v>133445</v>
       </c>
-      <c r="L68" s="52">
+      <c r="L68" s="29">
         <v>65325</v>
       </c>
-      <c r="M68" s="52">
+      <c r="M68" s="29">
         <v>68120</v>
       </c>
-      <c r="N68" s="52">
+      <c r="N68" s="29">
         <v>1204</v>
       </c>
-      <c r="O68" s="52">
+      <c r="O68" s="29">
         <v>642</v>
       </c>
-      <c r="P68" s="52">
+      <c r="P68" s="29">
         <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="48"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="25"/>
+      <c r="B69" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="51">
+      <c r="C69" s="27"/>
+      <c r="D69" s="28">
         <v>66407</v>
       </c>
-      <c r="E69" s="52">
+      <c r="E69" s="29">
         <v>65215</v>
       </c>
-      <c r="F69" s="52">
+      <c r="F69" s="29">
         <v>989</v>
       </c>
-      <c r="G69" s="52">
+      <c r="G69" s="29">
         <v>203</v>
       </c>
-      <c r="H69" s="52">
+      <c r="H69" s="29">
         <v>135722</v>
       </c>
-      <c r="I69" s="52">
+      <c r="I69" s="29">
         <v>66352</v>
       </c>
-      <c r="J69" s="52">
+      <c r="J69" s="29">
         <v>69370</v>
       </c>
-      <c r="K69" s="52">
+      <c r="K69" s="29">
         <v>134353</v>
       </c>
-      <c r="L69" s="52">
+      <c r="L69" s="29">
         <v>65597</v>
       </c>
-      <c r="M69" s="52">
+      <c r="M69" s="29">
         <v>68756</v>
       </c>
-      <c r="N69" s="52">
+      <c r="N69" s="29">
         <v>1369</v>
       </c>
-      <c r="O69" s="52">
+      <c r="O69" s="29">
         <v>755</v>
       </c>
-      <c r="P69" s="52">
+      <c r="P69" s="29">
         <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="48"/>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="25"/>
+      <c r="B70" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51">
+      <c r="C70" s="27"/>
+      <c r="D70" s="28">
         <v>67600</v>
       </c>
-      <c r="E70" s="52">
+      <c r="E70" s="29">
         <v>66294</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F70" s="29">
         <v>1097</v>
       </c>
-      <c r="G70" s="52">
+      <c r="G70" s="29">
         <v>209</v>
       </c>
-      <c r="H70" s="52">
+      <c r="H70" s="29">
         <v>136540</v>
       </c>
-      <c r="I70" s="52">
+      <c r="I70" s="29">
         <v>66694</v>
       </c>
-      <c r="J70" s="52">
+      <c r="J70" s="29">
         <v>69846</v>
       </c>
-      <c r="K70" s="52">
+      <c r="K70" s="29">
         <v>135064</v>
       </c>
-      <c r="L70" s="52">
+      <c r="L70" s="29">
         <v>65881</v>
       </c>
-      <c r="M70" s="52">
+      <c r="M70" s="29">
         <v>69183</v>
       </c>
-      <c r="N70" s="52">
+      <c r="N70" s="29">
         <v>1476</v>
       </c>
-      <c r="O70" s="52">
+      <c r="O70" s="29">
         <v>813</v>
       </c>
-      <c r="P70" s="52">
+      <c r="P70" s="29">
         <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="25"/>
+      <c r="B71" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="51">
+      <c r="C71" s="27"/>
+      <c r="D71" s="28">
         <v>68818</v>
       </c>
-      <c r="E71" s="52">
+      <c r="E71" s="29">
         <v>67613</v>
       </c>
-      <c r="F71" s="52">
+      <c r="F71" s="29">
         <v>1007</v>
       </c>
-      <c r="G71" s="52">
+      <c r="G71" s="29">
         <v>198</v>
       </c>
-      <c r="H71" s="52">
+      <c r="H71" s="29">
         <v>137142</v>
       </c>
-      <c r="I71" s="52">
+      <c r="I71" s="29">
         <v>66958</v>
       </c>
-      <c r="J71" s="52">
+      <c r="J71" s="29">
         <v>70184</v>
       </c>
-      <c r="K71" s="52">
+      <c r="K71" s="29">
         <v>135767</v>
       </c>
-      <c r="L71" s="52">
+      <c r="L71" s="29">
         <v>66248</v>
       </c>
-      <c r="M71" s="52">
+      <c r="M71" s="29">
         <v>69519</v>
       </c>
-      <c r="N71" s="52">
+      <c r="N71" s="29">
         <v>1375</v>
       </c>
-      <c r="O71" s="52">
+      <c r="O71" s="29">
         <v>710</v>
       </c>
-      <c r="P71" s="52">
+      <c r="P71" s="29">
         <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49" t="s">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="51">
+      <c r="C72" s="27"/>
+      <c r="D72" s="28">
         <v>69448</v>
       </c>
-      <c r="E72" s="52">
+      <c r="E72" s="29">
         <v>68390</v>
       </c>
-      <c r="F72" s="52">
+      <c r="F72" s="29">
         <v>858</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G72" s="29">
         <v>200</v>
       </c>
-      <c r="H72" s="52">
+      <c r="H72" s="29">
         <v>137171</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I72" s="29">
         <v>66939</v>
       </c>
-      <c r="J72" s="52">
+      <c r="J72" s="29">
         <v>70232</v>
       </c>
-      <c r="K72" s="52">
+      <c r="K72" s="29">
         <v>135912</v>
       </c>
-      <c r="L72" s="52">
+      <c r="L72" s="29">
         <v>66300</v>
       </c>
-      <c r="M72" s="52">
+      <c r="M72" s="29">
         <v>69612</v>
       </c>
-      <c r="N72" s="52">
+      <c r="N72" s="29">
         <v>1259</v>
       </c>
-      <c r="O72" s="52">
+      <c r="O72" s="29">
         <v>639</v>
       </c>
-      <c r="P72" s="52">
+      <c r="P72" s="29">
         <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="48"/>
-      <c r="B73" s="49" t="s">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="50"/>
-      <c r="D73" s="51">
+      <c r="C73" s="27"/>
+      <c r="D73" s="28">
         <v>70543</v>
       </c>
-      <c r="E73" s="52">
+      <c r="E73" s="29">
         <v>69306</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="29">
         <v>1036</v>
       </c>
-      <c r="G73" s="52">
+      <c r="G73" s="29">
         <v>201</v>
       </c>
-      <c r="H73" s="52">
+      <c r="H73" s="29">
         <v>137676</v>
       </c>
-      <c r="I73" s="52">
+      <c r="I73" s="29">
         <v>67174</v>
       </c>
-      <c r="J73" s="52">
+      <c r="J73" s="29">
         <v>70502</v>
       </c>
-      <c r="K73" s="52">
+      <c r="K73" s="29">
         <v>136191</v>
       </c>
-      <c r="L73" s="52">
+      <c r="L73" s="29">
         <v>66402</v>
       </c>
-      <c r="M73" s="52">
+      <c r="M73" s="29">
         <v>69789</v>
       </c>
-      <c r="N73" s="52">
+      <c r="N73" s="29">
         <v>1485</v>
       </c>
-      <c r="O73" s="52">
+      <c r="O73" s="29">
         <v>772</v>
       </c>
-      <c r="P73" s="52">
+      <c r="P73" s="29">
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A74" s="54"/>
-      <c r="B74" s="55" t="s">
+    <row r="74" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="31"/>
+      <c r="B74" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="57">
+      <c r="C74" s="33"/>
+      <c r="D74" s="34">
         <v>71404</v>
       </c>
-      <c r="E74" s="58">
+      <c r="E74" s="35">
         <v>70115</v>
       </c>
-      <c r="F74" s="58">
+      <c r="F74" s="35">
         <v>1085</v>
       </c>
-      <c r="G74" s="58">
+      <c r="G74" s="35">
         <v>204</v>
       </c>
-      <c r="H74" s="58">
+      <c r="H74" s="35">
         <v>138001</v>
       </c>
-      <c r="I74" s="58">
+      <c r="I74" s="35">
         <v>67375</v>
       </c>
-      <c r="J74" s="58">
+      <c r="J74" s="35">
         <v>70626</v>
       </c>
-      <c r="K74" s="58">
+      <c r="K74" s="35">
         <v>136451</v>
       </c>
-      <c r="L74" s="58">
+      <c r="L74" s="35">
         <v>66555</v>
       </c>
-      <c r="M74" s="58">
+      <c r="M74" s="35">
         <v>69896</v>
       </c>
-      <c r="N74" s="58">
+      <c r="N74" s="35">
         <v>1550</v>
       </c>
-      <c r="O74" s="58">
+      <c r="O74" s="35">
         <v>820</v>
       </c>
-      <c r="P74" s="58">
+      <c r="P74" s="35">
         <v>730</v>
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
     </row>
     <row r="76" spans="1:16" ht="15" customHeight="1">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="62"/>
-      <c r="P76" s="62"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
     </row>
     <row r="77" spans="1:16" ht="15" customHeight="1">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="25"/>
+      <c r="B77" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="50"/>
-      <c r="D77" s="61">
+      <c r="C77" s="27"/>
+      <c r="D77" s="38">
         <v>102728</v>
       </c>
-      <c r="E77" s="63">
+      <c r="E77" s="40">
         <v>101398</v>
       </c>
-      <c r="F77" s="63">
+      <c r="F77" s="40">
         <v>982</v>
       </c>
-      <c r="G77" s="63">
+      <c r="G77" s="40">
         <v>348</v>
       </c>
-      <c r="H77" s="63">
+      <c r="H77" s="40">
         <v>226069</v>
       </c>
-      <c r="I77" s="63">
+      <c r="I77" s="40">
         <v>109483</v>
       </c>
-      <c r="J77" s="63">
+      <c r="J77" s="40">
         <v>116586</v>
       </c>
-      <c r="K77" s="63">
+      <c r="K77" s="40">
         <v>224333</v>
       </c>
-      <c r="L77" s="63">
+      <c r="L77" s="40">
         <v>108603</v>
       </c>
-      <c r="M77" s="63">
+      <c r="M77" s="40">
         <v>115730</v>
       </c>
-      <c r="N77" s="63">
+      <c r="N77" s="40">
         <v>1736</v>
       </c>
-      <c r="O77" s="63">
+      <c r="O77" s="40">
         <v>880</v>
       </c>
-      <c r="P77" s="63">
+      <c r="P77" s="40">
         <v>856</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="15" customHeight="1">
-      <c r="A78" s="48"/>
-      <c r="B78" s="53" t="s">
+      <c r="A78" s="25"/>
+      <c r="B78" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="61">
+      <c r="C78" s="27"/>
+      <c r="D78" s="38">
         <v>104479</v>
       </c>
-      <c r="E78" s="63">
+      <c r="E78" s="40">
         <v>102964</v>
       </c>
-      <c r="F78" s="63">
+      <c r="F78" s="40">
         <v>1157</v>
       </c>
-      <c r="G78" s="63">
+      <c r="G78" s="40">
         <v>358</v>
       </c>
-      <c r="H78" s="63">
+      <c r="H78" s="40">
         <v>228074</v>
       </c>
-      <c r="I78" s="63">
+      <c r="I78" s="40">
         <v>110389</v>
       </c>
-      <c r="J78" s="63">
+      <c r="J78" s="40">
         <v>117685</v>
       </c>
-      <c r="K78" s="63">
+      <c r="K78" s="40">
         <v>226165</v>
       </c>
-      <c r="L78" s="63">
+      <c r="L78" s="40">
         <v>109377</v>
       </c>
-      <c r="M78" s="63">
+      <c r="M78" s="40">
         <v>116788</v>
       </c>
-      <c r="N78" s="63">
+      <c r="N78" s="40">
         <v>1909</v>
       </c>
-      <c r="O78" s="63">
+      <c r="O78" s="40">
         <v>1012</v>
       </c>
-      <c r="P78" s="63">
+      <c r="P78" s="40">
         <v>897</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" customHeight="1">
-      <c r="A79" s="48"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="25"/>
+      <c r="B79" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="61">
+      <c r="C79" s="27"/>
+      <c r="D79" s="38">
         <v>105952</v>
       </c>
-      <c r="E79" s="63">
+      <c r="E79" s="40">
         <v>104466</v>
       </c>
-      <c r="F79" s="63">
+      <c r="F79" s="40">
         <v>1116</v>
       </c>
-      <c r="G79" s="63">
+      <c r="G79" s="40">
         <v>370</v>
       </c>
-      <c r="H79" s="63">
+      <c r="H79" s="40">
         <v>229157</v>
       </c>
-      <c r="I79" s="63">
+      <c r="I79" s="40">
         <v>110751</v>
       </c>
-      <c r="J79" s="63">
+      <c r="J79" s="40">
         <v>118406</v>
       </c>
-      <c r="K79" s="63">
+      <c r="K79" s="40">
         <v>227305</v>
       </c>
-      <c r="L79" s="63">
+      <c r="L79" s="40">
         <v>109790</v>
       </c>
-      <c r="M79" s="63">
+      <c r="M79" s="40">
         <v>117515</v>
       </c>
-      <c r="N79" s="63">
+      <c r="N79" s="40">
         <v>1852</v>
       </c>
-      <c r="O79" s="63">
+      <c r="O79" s="40">
         <v>961</v>
       </c>
-      <c r="P79" s="63">
+      <c r="P79" s="40">
         <v>891</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1">
-      <c r="A80" s="48"/>
-      <c r="B80" s="53" t="s">
+      <c r="A80" s="25"/>
+      <c r="B80" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="61">
+      <c r="C80" s="27"/>
+      <c r="D80" s="38">
         <v>107972</v>
       </c>
-      <c r="E80" s="63">
+      <c r="E80" s="40">
         <v>106400</v>
       </c>
-      <c r="F80" s="63">
+      <c r="F80" s="40">
         <v>1205</v>
       </c>
-      <c r="G80" s="63">
+      <c r="G80" s="40">
         <v>367</v>
       </c>
-      <c r="H80" s="63">
+      <c r="H80" s="40">
         <v>230986</v>
       </c>
-      <c r="I80" s="63">
+      <c r="I80" s="40">
         <v>111512</v>
       </c>
-      <c r="J80" s="63">
+      <c r="J80" s="40">
         <v>119474</v>
       </c>
-      <c r="K80" s="63">
+      <c r="K80" s="40">
         <v>229056</v>
       </c>
-      <c r="L80" s="63">
+      <c r="L80" s="40">
         <v>110459</v>
       </c>
-      <c r="M80" s="63">
+      <c r="M80" s="40">
         <v>118597</v>
       </c>
-      <c r="N80" s="63">
+      <c r="N80" s="40">
         <v>1930</v>
       </c>
-      <c r="O80" s="63">
+      <c r="O80" s="40">
         <v>1053</v>
       </c>
-      <c r="P80" s="63">
+      <c r="P80" s="40">
         <v>877</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15" customHeight="1">
-      <c r="A81" s="48"/>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="25"/>
+      <c r="B81" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="61">
+      <c r="C81" s="27"/>
+      <c r="D81" s="38">
         <v>109829</v>
       </c>
-      <c r="E81" s="63">
+      <c r="E81" s="40">
         <v>108267</v>
       </c>
-      <c r="F81" s="63">
+      <c r="F81" s="40">
         <v>1189</v>
       </c>
-      <c r="G81" s="63">
+      <c r="G81" s="40">
         <v>373</v>
       </c>
-      <c r="H81" s="63">
+      <c r="H81" s="40">
         <v>232226</v>
       </c>
-      <c r="I81" s="63">
+      <c r="I81" s="40">
         <v>112116</v>
       </c>
-      <c r="J81" s="63">
+      <c r="J81" s="40">
         <v>120110</v>
       </c>
-      <c r="K81" s="63">
+      <c r="K81" s="40">
         <v>230303</v>
       </c>
-      <c r="L81" s="63">
+      <c r="L81" s="40">
         <v>111070</v>
       </c>
-      <c r="M81" s="63">
+      <c r="M81" s="40">
         <v>119233</v>
       </c>
-      <c r="N81" s="63">
+      <c r="N81" s="40">
         <v>1923</v>
       </c>
-      <c r="O81" s="63">
+      <c r="O81" s="40">
         <v>1046</v>
       </c>
-      <c r="P81" s="63">
+      <c r="P81" s="40">
         <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="15" customHeight="1">
-      <c r="A82" s="48"/>
-      <c r="B82" s="49" t="s">
+      <c r="A82" s="25"/>
+      <c r="B82" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="61">
+      <c r="C82" s="27"/>
+      <c r="D82" s="38">
         <v>111504</v>
       </c>
-      <c r="E82" s="63">
+      <c r="E82" s="40">
         <v>110107</v>
       </c>
-      <c r="F82" s="63">
+      <c r="F82" s="40">
         <v>1020</v>
       </c>
-      <c r="G82" s="63">
+      <c r="G82" s="40">
         <v>377</v>
       </c>
-      <c r="H82" s="63">
+      <c r="H82" s="40">
         <v>233101</v>
       </c>
-      <c r="I82" s="63">
+      <c r="I82" s="40">
         <v>112544</v>
       </c>
-      <c r="J82" s="63">
+      <c r="J82" s="40">
         <v>120557</v>
       </c>
-      <c r="K82" s="63">
+      <c r="K82" s="40">
         <v>231337</v>
       </c>
-      <c r="L82" s="63">
+      <c r="L82" s="40">
         <v>111626</v>
       </c>
-      <c r="M82" s="63">
+      <c r="M82" s="40">
         <v>119711</v>
       </c>
-      <c r="N82" s="63">
+      <c r="N82" s="40">
         <v>1764</v>
       </c>
-      <c r="O82" s="63">
+      <c r="O82" s="40">
         <v>918</v>
       </c>
-      <c r="P82" s="63">
+      <c r="P82" s="40">
         <v>846</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" customHeight="1">
-      <c r="A83" s="48"/>
-      <c r="B83" s="49" t="s">
+      <c r="A83" s="25"/>
+      <c r="B83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="61">
+      <c r="C83" s="27"/>
+      <c r="D83" s="38">
         <v>113375</v>
       </c>
-      <c r="E83" s="63">
+      <c r="E83" s="40">
         <v>111612</v>
       </c>
-      <c r="F83" s="63">
+      <c r="F83" s="40">
         <v>1374</v>
       </c>
-      <c r="G83" s="63">
+      <c r="G83" s="40">
         <v>389</v>
       </c>
-      <c r="H83" s="63">
+      <c r="H83" s="40">
         <v>233974</v>
       </c>
-      <c r="I83" s="63">
+      <c r="I83" s="40">
         <v>113060</v>
       </c>
-      <c r="J83" s="63">
+      <c r="J83" s="40">
         <v>120914</v>
       </c>
-      <c r="K83" s="63">
+      <c r="K83" s="40">
         <v>231839</v>
       </c>
-      <c r="L83" s="63">
+      <c r="L83" s="40">
         <v>111872</v>
       </c>
-      <c r="M83" s="63">
+      <c r="M83" s="40">
         <v>119967</v>
       </c>
-      <c r="N83" s="63">
+      <c r="N83" s="40">
         <v>2135</v>
       </c>
-      <c r="O83" s="63">
+      <c r="O83" s="40">
         <v>1188</v>
       </c>
-      <c r="P83" s="63">
+      <c r="P83" s="40">
         <v>947</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55" t="s">
+    <row r="84" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="31"/>
+      <c r="B84" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="57">
+      <c r="C84" s="33"/>
+      <c r="D84" s="34">
         <v>114553</v>
       </c>
-      <c r="E84" s="58">
+      <c r="E84" s="35">
         <v>112739</v>
       </c>
-      <c r="F84" s="58">
+      <c r="F84" s="35">
         <v>1421</v>
       </c>
-      <c r="G84" s="58">
+      <c r="G84" s="35">
         <v>393</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="35">
         <v>233764</v>
       </c>
-      <c r="I84" s="58">
+      <c r="I84" s="35">
         <v>112872</v>
       </c>
-      <c r="J84" s="58">
+      <c r="J84" s="35">
         <v>120892</v>
       </c>
-      <c r="K84" s="58">
+      <c r="K84" s="35">
         <v>231584</v>
       </c>
-      <c r="L84" s="58">
+      <c r="L84" s="35">
         <v>111681</v>
       </c>
-      <c r="M84" s="58">
+      <c r="M84" s="35">
         <v>119903</v>
       </c>
-      <c r="N84" s="58">
+      <c r="N84" s="35">
         <v>2180</v>
       </c>
-      <c r="O84" s="58">
+      <c r="O84" s="35">
         <v>1191</v>
       </c>
-      <c r="P84" s="58">
+      <c r="P84" s="35">
         <v>989</v>
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="63"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
     </row>
     <row r="86" spans="1:16" ht="15" customHeight="1">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="63"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" spans="1:16" ht="15" customHeight="1">
-      <c r="A87" s="48"/>
-      <c r="B87" s="49" t="s">
+      <c r="A87" s="25"/>
+      <c r="B87" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="61">
+      <c r="C87" s="27"/>
+      <c r="D87" s="38">
         <v>1910</v>
       </c>
-      <c r="E87" s="63">
+      <c r="E87" s="40">
         <v>1888</v>
       </c>
-      <c r="F87" s="63">
+      <c r="F87" s="40">
         <v>13</v>
       </c>
-      <c r="G87" s="63">
+      <c r="G87" s="40">
         <v>9</v>
       </c>
-      <c r="H87" s="63">
+      <c r="H87" s="40">
         <v>4192</v>
       </c>
-      <c r="I87" s="63">
+      <c r="I87" s="40">
         <v>1974</v>
       </c>
-      <c r="J87" s="63">
+      <c r="J87" s="40">
         <v>2218</v>
       </c>
-      <c r="K87" s="63">
+      <c r="K87" s="40">
         <v>4170</v>
       </c>
-      <c r="L87" s="63">
+      <c r="L87" s="40">
         <v>1965</v>
       </c>
-      <c r="M87" s="63">
+      <c r="M87" s="40">
         <v>2205</v>
       </c>
-      <c r="N87" s="63">
+      <c r="N87" s="40">
         <v>22</v>
       </c>
-      <c r="O87" s="63">
+      <c r="O87" s="40">
         <v>9</v>
       </c>
-      <c r="P87" s="63">
+      <c r="P87" s="40">
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15" customHeight="1">
-      <c r="A88" s="48"/>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="25"/>
+      <c r="B88" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="61">
+      <c r="C88" s="27"/>
+      <c r="D88" s="38">
         <v>1921</v>
       </c>
-      <c r="E88" s="63">
+      <c r="E88" s="40">
         <v>1893</v>
       </c>
-      <c r="F88" s="63">
+      <c r="F88" s="40">
         <v>19</v>
       </c>
-      <c r="G88" s="63">
+      <c r="G88" s="40">
         <v>9</v>
       </c>
-      <c r="H88" s="63">
+      <c r="H88" s="40">
         <v>4127</v>
       </c>
-      <c r="I88" s="63">
+      <c r="I88" s="40">
         <v>1955</v>
       </c>
-      <c r="J88" s="63">
+      <c r="J88" s="40">
         <v>2172</v>
       </c>
-      <c r="K88" s="63">
+      <c r="K88" s="40">
         <v>4098</v>
       </c>
-      <c r="L88" s="63">
+      <c r="L88" s="40">
         <v>1944</v>
       </c>
-      <c r="M88" s="63">
+      <c r="M88" s="40">
         <v>2154</v>
       </c>
-      <c r="N88" s="63">
+      <c r="N88" s="40">
         <v>29</v>
       </c>
-      <c r="O88" s="63">
+      <c r="O88" s="40">
         <v>11</v>
       </c>
-      <c r="P88" s="63">
+      <c r="P88" s="40">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15" customHeight="1">
-      <c r="A89" s="48"/>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="25"/>
+      <c r="B89" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="61">
+      <c r="C89" s="27"/>
+      <c r="D89" s="38">
         <v>1935</v>
       </c>
-      <c r="E89" s="63">
+      <c r="E89" s="40">
         <v>1899</v>
       </c>
-      <c r="F89" s="63">
+      <c r="F89" s="40">
         <v>27</v>
       </c>
-      <c r="G89" s="63">
+      <c r="G89" s="40">
         <v>9</v>
       </c>
-      <c r="H89" s="63">
+      <c r="H89" s="40">
         <v>4100</v>
       </c>
-      <c r="I89" s="63">
+      <c r="I89" s="40">
         <v>1939</v>
       </c>
-      <c r="J89" s="63">
+      <c r="J89" s="40">
         <v>2161</v>
       </c>
-      <c r="K89" s="63">
+      <c r="K89" s="40">
         <v>4061</v>
       </c>
-      <c r="L89" s="63">
+      <c r="L89" s="40">
         <v>1924</v>
       </c>
-      <c r="M89" s="63">
+      <c r="M89" s="40">
         <v>2137</v>
       </c>
-      <c r="N89" s="63">
+      <c r="N89" s="40">
         <v>39</v>
       </c>
-      <c r="O89" s="63">
+      <c r="O89" s="40">
         <v>15</v>
       </c>
-      <c r="P89" s="63">
+      <c r="P89" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15" customHeight="1">
-      <c r="A90" s="48"/>
-      <c r="B90" s="53" t="s">
+      <c r="A90" s="25"/>
+      <c r="B90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="61">
+      <c r="C90" s="27"/>
+      <c r="D90" s="38">
         <v>1938</v>
       </c>
-      <c r="E90" s="63">
+      <c r="E90" s="40">
         <v>1901</v>
       </c>
-      <c r="F90" s="63">
+      <c r="F90" s="40">
         <v>27</v>
       </c>
-      <c r="G90" s="63">
+      <c r="G90" s="40">
         <v>10</v>
       </c>
-      <c r="H90" s="63">
+      <c r="H90" s="40">
         <v>4021</v>
       </c>
-      <c r="I90" s="63">
+      <c r="I90" s="40">
         <v>1887</v>
       </c>
-      <c r="J90" s="63">
+      <c r="J90" s="40">
         <v>2134</v>
       </c>
-      <c r="K90" s="63">
+      <c r="K90" s="40">
         <v>3983</v>
       </c>
-      <c r="L90" s="63">
+      <c r="L90" s="40">
         <v>1872</v>
       </c>
-      <c r="M90" s="63">
+      <c r="M90" s="40">
         <v>2111</v>
       </c>
-      <c r="N90" s="63">
+      <c r="N90" s="40">
         <v>38</v>
       </c>
-      <c r="O90" s="63">
+      <c r="O90" s="40">
         <v>15</v>
       </c>
-      <c r="P90" s="63">
+      <c r="P90" s="40">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15" customHeight="1">
-      <c r="A91" s="48"/>
-      <c r="B91" s="49" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="61">
+      <c r="C91" s="27"/>
+      <c r="D91" s="38">
         <v>1913</v>
       </c>
-      <c r="E91" s="63">
+      <c r="E91" s="40">
         <v>1880</v>
       </c>
-      <c r="F91" s="63">
+      <c r="F91" s="40">
         <v>25</v>
       </c>
-      <c r="G91" s="63">
+      <c r="G91" s="40">
         <v>8</v>
       </c>
-      <c r="H91" s="63">
+      <c r="H91" s="40">
         <v>3926</v>
       </c>
-      <c r="I91" s="63">
+      <c r="I91" s="40">
         <v>1868</v>
       </c>
-      <c r="J91" s="63">
+      <c r="J91" s="40">
         <v>2058</v>
       </c>
-      <c r="K91" s="63">
+      <c r="K91" s="40">
         <v>3891</v>
       </c>
-      <c r="L91" s="63">
+      <c r="L91" s="40">
         <v>1854</v>
       </c>
-      <c r="M91" s="63">
+      <c r="M91" s="40">
         <v>2037</v>
       </c>
-      <c r="N91" s="63">
+      <c r="N91" s="40">
         <v>35</v>
       </c>
-      <c r="O91" s="63">
+      <c r="O91" s="40">
         <v>14</v>
       </c>
-      <c r="P91" s="63">
+      <c r="P91" s="40">
         <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="15" customHeight="1">
-      <c r="A92" s="48"/>
-      <c r="B92" s="49" t="s">
+      <c r="A92" s="25"/>
+      <c r="B92" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="61">
+      <c r="C92" s="27"/>
+      <c r="D92" s="38">
         <v>1894</v>
       </c>
-      <c r="E92" s="63">
+      <c r="E92" s="40">
         <v>1869</v>
       </c>
-      <c r="F92" s="63">
+      <c r="F92" s="40">
         <v>18</v>
       </c>
-      <c r="G92" s="63">
+      <c r="G92" s="40">
         <v>7</v>
       </c>
-      <c r="H92" s="63">
+      <c r="H92" s="40">
         <v>3831</v>
       </c>
-      <c r="I92" s="63">
+      <c r="I92" s="40">
         <v>1841</v>
       </c>
-      <c r="J92" s="63">
+      <c r="J92" s="40">
         <v>1990</v>
       </c>
-      <c r="K92" s="63">
+      <c r="K92" s="40">
         <v>3803</v>
       </c>
-      <c r="L92" s="63">
+      <c r="L92" s="40">
         <v>1830</v>
       </c>
-      <c r="M92" s="63">
+      <c r="M92" s="40">
         <v>1973</v>
       </c>
-      <c r="N92" s="63">
+      <c r="N92" s="40">
         <v>28</v>
       </c>
-      <c r="O92" s="63">
+      <c r="O92" s="40">
         <v>11</v>
       </c>
-      <c r="P92" s="63">
+      <c r="P92" s="40">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="15" customHeight="1">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="25"/>
+      <c r="B93" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="61">
+      <c r="C93" s="27"/>
+      <c r="D93" s="38">
         <v>1878</v>
       </c>
-      <c r="E93" s="63">
+      <c r="E93" s="40">
         <v>1836</v>
       </c>
-      <c r="F93" s="63">
+      <c r="F93" s="40">
         <v>34</v>
       </c>
-      <c r="G93" s="63">
+      <c r="G93" s="40">
         <v>8</v>
       </c>
-      <c r="H93" s="63">
+      <c r="H93" s="40">
         <v>3800</v>
       </c>
-      <c r="I93" s="63">
+      <c r="I93" s="40">
         <v>1845</v>
       </c>
-      <c r="J93" s="63">
+      <c r="J93" s="40">
         <v>1955</v>
       </c>
-      <c r="K93" s="63">
+      <c r="K93" s="40">
         <v>3755</v>
       </c>
-      <c r="L93" s="63">
+      <c r="L93" s="40">
         <v>1820</v>
       </c>
-      <c r="M93" s="63">
+      <c r="M93" s="40">
         <v>1935</v>
       </c>
-      <c r="N93" s="63">
+      <c r="N93" s="40">
         <v>45</v>
       </c>
-      <c r="O93" s="63">
+      <c r="O93" s="40">
         <v>25</v>
       </c>
-      <c r="P93" s="63">
+      <c r="P93" s="40">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55" t="s">
+    <row r="94" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A94" s="31"/>
+      <c r="B94" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="57">
+      <c r="C94" s="33"/>
+      <c r="D94" s="34">
         <v>1877</v>
       </c>
-      <c r="E94" s="58">
+      <c r="E94" s="35">
         <v>1809</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="35">
         <v>58</v>
       </c>
-      <c r="G94" s="58">
+      <c r="G94" s="35">
         <v>10</v>
       </c>
-      <c r="H94" s="58">
+      <c r="H94" s="35">
         <v>3764</v>
       </c>
-      <c r="I94" s="58">
+      <c r="I94" s="35">
         <v>1841</v>
       </c>
-      <c r="J94" s="58">
+      <c r="J94" s="35">
         <v>1923</v>
       </c>
-      <c r="K94" s="58">
+      <c r="K94" s="35">
         <v>3692</v>
       </c>
-      <c r="L94" s="58">
+      <c r="L94" s="35">
         <v>1805</v>
       </c>
-      <c r="M94" s="58">
+      <c r="M94" s="35">
         <v>1887</v>
       </c>
-      <c r="N94" s="58">
+      <c r="N94" s="35">
         <v>72</v>
       </c>
-      <c r="O94" s="58">
+      <c r="O94" s="35">
         <v>36</v>
       </c>
-      <c r="P94" s="58">
+      <c r="P94" s="35">
         <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="63"/>
-      <c r="K95" s="63"/>
-      <c r="L95" s="63"/>
-      <c r="M95" s="63"/>
-      <c r="N95" s="63"/>
-      <c r="O95" s="63"/>
-      <c r="P95" s="63"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
     </row>
     <row r="96" spans="1:16" ht="15" customHeight="1">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
-      <c r="J96" s="63"/>
-      <c r="K96" s="63"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63"/>
-      <c r="N96" s="63"/>
-      <c r="O96" s="63"/>
-      <c r="P96" s="63"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1">
-      <c r="A97" s="48"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="25"/>
+      <c r="B97" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="61">
+      <c r="C97" s="27"/>
+      <c r="D97" s="38">
         <v>93393</v>
       </c>
-      <c r="E97" s="63">
+      <c r="E97" s="40">
         <v>92500</v>
       </c>
-      <c r="F97" s="63">
+      <c r="F97" s="40">
         <v>542</v>
       </c>
-      <c r="G97" s="63">
+      <c r="G97" s="40">
         <v>351</v>
       </c>
-      <c r="H97" s="63">
+      <c r="H97" s="40">
         <v>214692</v>
       </c>
-      <c r="I97" s="63">
+      <c r="I97" s="40">
         <v>104126</v>
       </c>
-      <c r="J97" s="63">
+      <c r="J97" s="40">
         <v>110566</v>
       </c>
-      <c r="K97" s="63">
+      <c r="K97" s="40">
         <v>213503</v>
       </c>
-      <c r="L97" s="63">
+      <c r="L97" s="40">
         <v>103639</v>
       </c>
-      <c r="M97" s="63">
+      <c r="M97" s="40">
         <v>109864</v>
       </c>
-      <c r="N97" s="63">
+      <c r="N97" s="40">
         <v>1189</v>
       </c>
-      <c r="O97" s="63">
+      <c r="O97" s="40">
         <v>487</v>
       </c>
-      <c r="P97" s="63">
+      <c r="P97" s="40">
         <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1">
-      <c r="A98" s="48"/>
-      <c r="B98" s="53" t="s">
+      <c r="A98" s="25"/>
+      <c r="B98" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="61">
+      <c r="C98" s="27"/>
+      <c r="D98" s="38">
         <v>94172</v>
       </c>
-      <c r="E98" s="63">
+      <c r="E98" s="40">
         <v>93183</v>
       </c>
-      <c r="F98" s="63">
+      <c r="F98" s="40">
         <v>626</v>
       </c>
-      <c r="G98" s="63">
+      <c r="G98" s="40">
         <v>363</v>
       </c>
-      <c r="H98" s="63">
+      <c r="H98" s="40">
         <v>213758</v>
       </c>
-      <c r="I98" s="63">
+      <c r="I98" s="40">
         <v>103547</v>
       </c>
-      <c r="J98" s="63">
+      <c r="J98" s="40">
         <v>110211</v>
       </c>
-      <c r="K98" s="63">
+      <c r="K98" s="40">
         <v>212472</v>
       </c>
-      <c r="L98" s="63">
+      <c r="L98" s="40">
         <v>102995</v>
       </c>
-      <c r="M98" s="63">
+      <c r="M98" s="40">
         <v>109477</v>
       </c>
-      <c r="N98" s="63">
+      <c r="N98" s="40">
         <v>1286</v>
       </c>
-      <c r="O98" s="63">
+      <c r="O98" s="40">
         <v>552</v>
       </c>
-      <c r="P98" s="63">
+      <c r="P98" s="40">
         <v>734</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" customHeight="1">
-      <c r="A99" s="48"/>
-      <c r="B99" s="53" t="s">
+      <c r="A99" s="25"/>
+      <c r="B99" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="61">
+      <c r="C99" s="27"/>
+      <c r="D99" s="38">
         <v>95062</v>
       </c>
-      <c r="E99" s="63">
+      <c r="E99" s="40">
         <v>94002</v>
       </c>
-      <c r="F99" s="63">
+      <c r="F99" s="40">
         <v>687</v>
       </c>
-      <c r="G99" s="63">
+      <c r="G99" s="40">
         <v>373</v>
       </c>
-      <c r="H99" s="63">
+      <c r="H99" s="40">
         <v>213180</v>
       </c>
-      <c r="I99" s="63">
+      <c r="I99" s="40">
         <v>103165</v>
       </c>
-      <c r="J99" s="63">
+      <c r="J99" s="40">
         <v>110015</v>
       </c>
-      <c r="K99" s="63">
+      <c r="K99" s="40">
         <v>211784</v>
       </c>
-      <c r="L99" s="63">
+      <c r="L99" s="40">
         <v>102551</v>
       </c>
-      <c r="M99" s="63">
+      <c r="M99" s="40">
         <v>109233</v>
       </c>
-      <c r="N99" s="63">
+      <c r="N99" s="40">
         <v>1396</v>
       </c>
-      <c r="O99" s="63">
+      <c r="O99" s="40">
         <v>614</v>
       </c>
-      <c r="P99" s="63">
+      <c r="P99" s="40">
         <v>782</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15" customHeight="1">
-      <c r="A100" s="48"/>
-      <c r="B100" s="53" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="50"/>
-      <c r="D100" s="61">
+      <c r="C100" s="27"/>
+      <c r="D100" s="38">
         <v>95807</v>
       </c>
-      <c r="E100" s="63">
+      <c r="E100" s="40">
         <v>94645</v>
       </c>
-      <c r="F100" s="63">
+      <c r="F100" s="40">
         <v>772</v>
       </c>
-      <c r="G100" s="63">
+      <c r="G100" s="40">
         <v>390</v>
       </c>
-      <c r="H100" s="63">
+      <c r="H100" s="40">
         <v>212324</v>
       </c>
-      <c r="I100" s="63">
+      <c r="I100" s="40">
         <v>102744</v>
       </c>
-      <c r="J100" s="63">
+      <c r="J100" s="40">
         <v>109580</v>
       </c>
-      <c r="K100" s="63">
+      <c r="K100" s="40">
         <v>210833</v>
       </c>
-      <c r="L100" s="63">
+      <c r="L100" s="40">
         <v>102049</v>
       </c>
-      <c r="M100" s="63">
+      <c r="M100" s="40">
         <v>108784</v>
       </c>
-      <c r="N100" s="63">
+      <c r="N100" s="40">
         <v>1491</v>
       </c>
-      <c r="O100" s="63">
+      <c r="O100" s="40">
         <v>695</v>
       </c>
-      <c r="P100" s="63">
+      <c r="P100" s="40">
         <v>796</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="15" customHeight="1">
-      <c r="A101" s="48"/>
-      <c r="B101" s="49" t="s">
+      <c r="A101" s="25"/>
+      <c r="B101" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="50"/>
-      <c r="D101" s="61">
+      <c r="C101" s="27"/>
+      <c r="D101" s="38">
         <v>96687</v>
       </c>
-      <c r="E101" s="63">
+      <c r="E101" s="40">
         <v>95564</v>
       </c>
-      <c r="F101" s="63">
+      <c r="F101" s="40">
         <v>741</v>
       </c>
-      <c r="G101" s="63">
+      <c r="G101" s="40">
         <v>382</v>
       </c>
-      <c r="H101" s="63">
+      <c r="H101" s="40">
         <v>211747</v>
       </c>
-      <c r="I101" s="63">
+      <c r="I101" s="40">
         <v>102266</v>
       </c>
-      <c r="J101" s="63">
+      <c r="J101" s="40">
         <v>109481</v>
       </c>
-      <c r="K101" s="63">
+      <c r="K101" s="40">
         <v>210321</v>
       </c>
-      <c r="L101" s="63">
+      <c r="L101" s="40">
         <v>101599</v>
       </c>
-      <c r="M101" s="63">
+      <c r="M101" s="40">
         <v>108722</v>
       </c>
-      <c r="N101" s="63">
+      <c r="N101" s="40">
         <v>1426</v>
       </c>
-      <c r="O101" s="63">
+      <c r="O101" s="40">
         <v>667</v>
       </c>
-      <c r="P101" s="63">
+      <c r="P101" s="40">
         <v>759</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="15" customHeight="1">
-      <c r="A102" s="48"/>
-      <c r="B102" s="49" t="s">
+      <c r="A102" s="25"/>
+      <c r="B102" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="50"/>
-      <c r="D102" s="61">
+      <c r="C102" s="27"/>
+      <c r="D102" s="38">
         <v>97673</v>
       </c>
-      <c r="E102" s="63">
+      <c r="E102" s="40">
         <v>96547</v>
       </c>
-      <c r="F102" s="63">
+      <c r="F102" s="40">
         <v>739</v>
       </c>
-      <c r="G102" s="63">
+      <c r="G102" s="40">
         <v>387</v>
       </c>
-      <c r="H102" s="63">
+      <c r="H102" s="40">
         <v>210728</v>
       </c>
-      <c r="I102" s="63">
+      <c r="I102" s="40">
         <v>101704</v>
       </c>
-      <c r="J102" s="63">
+      <c r="J102" s="40">
         <v>109024</v>
       </c>
-      <c r="K102" s="63">
+      <c r="K102" s="40">
         <v>209295</v>
       </c>
-      <c r="L102" s="63">
+      <c r="L102" s="40">
         <v>101046</v>
       </c>
-      <c r="M102" s="63">
+      <c r="M102" s="40">
         <v>108249</v>
       </c>
-      <c r="N102" s="63">
+      <c r="N102" s="40">
         <v>1433</v>
       </c>
-      <c r="O102" s="63">
+      <c r="O102" s="40">
         <v>658</v>
       </c>
-      <c r="P102" s="63">
+      <c r="P102" s="40">
         <v>775</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15" customHeight="1">
-      <c r="A103" s="48"/>
-      <c r="B103" s="49" t="s">
+      <c r="A103" s="25"/>
+      <c r="B103" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="50"/>
-      <c r="D103" s="61">
+      <c r="C103" s="27"/>
+      <c r="D103" s="38">
         <v>98467</v>
       </c>
-      <c r="E103" s="63">
+      <c r="E103" s="40">
         <v>97151</v>
       </c>
-      <c r="F103" s="63">
+      <c r="F103" s="40">
         <v>927</v>
       </c>
-      <c r="G103" s="63">
+      <c r="G103" s="40">
         <v>389</v>
       </c>
-      <c r="H103" s="63">
+      <c r="H103" s="40">
         <v>209480</v>
       </c>
-      <c r="I103" s="63">
+      <c r="I103" s="40">
         <v>101004</v>
       </c>
-      <c r="J103" s="63">
+      <c r="J103" s="40">
         <v>108476</v>
       </c>
-      <c r="K103" s="63">
+      <c r="K103" s="40">
         <v>207825</v>
       </c>
-      <c r="L103" s="63">
+      <c r="L103" s="40">
         <v>100255</v>
       </c>
-      <c r="M103" s="63">
+      <c r="M103" s="40">
         <v>107570</v>
       </c>
-      <c r="N103" s="63">
+      <c r="N103" s="40">
         <v>1655</v>
       </c>
-      <c r="O103" s="63">
+      <c r="O103" s="40">
         <v>749</v>
       </c>
-      <c r="P103" s="63">
+      <c r="P103" s="40">
         <v>906</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="54"/>
-      <c r="B104" s="55" t="s">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A104" s="31"/>
+      <c r="B104" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="57">
+      <c r="C104" s="33"/>
+      <c r="D104" s="34">
         <v>99280</v>
       </c>
-      <c r="E104" s="58">
+      <c r="E104" s="35">
         <v>97754</v>
       </c>
-      <c r="F104" s="58">
+      <c r="F104" s="35">
         <v>1129</v>
       </c>
-      <c r="G104" s="58">
+      <c r="G104" s="35">
         <v>397</v>
       </c>
-      <c r="H104" s="58">
+      <c r="H104" s="35">
         <v>208024</v>
       </c>
-      <c r="I104" s="58">
+      <c r="I104" s="35">
         <v>100265</v>
       </c>
-      <c r="J104" s="58">
+      <c r="J104" s="35">
         <v>107759</v>
       </c>
-      <c r="K104" s="58">
+      <c r="K104" s="35">
         <v>206143</v>
       </c>
-      <c r="L104" s="58">
+      <c r="L104" s="35">
         <v>99378</v>
       </c>
-      <c r="M104" s="58">
+      <c r="M104" s="35">
         <v>106765</v>
       </c>
-      <c r="N104" s="58">
+      <c r="N104" s="35">
         <v>1881</v>
       </c>
-      <c r="O104" s="58">
+      <c r="O104" s="35">
         <v>887</v>
       </c>
-      <c r="P104" s="58">
+      <c r="P104" s="35">
         <v>994</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15" thickBot="1">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="66"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="66"/>
-      <c r="P105" s="66"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="44" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="O10:O12"/>
     <mergeCell ref="O63:O65"/>
     <mergeCell ref="P63:P65"/>
     <mergeCell ref="K62:K65"/>
     <mergeCell ref="N62:N65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="J63:J65"/>
     <mergeCell ref="L63:L65"/>
     <mergeCell ref="M63:M65"/>
-    <mergeCell ref="P10:P12"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="B61:B65"/>
     <mergeCell ref="D61:G61"/>
@@ -4876,12 +5016,8 @@
     <mergeCell ref="F62:F65"/>
     <mergeCell ref="G62:G65"/>
     <mergeCell ref="H62:H65"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="J63:J65"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="D8:G8"/>
@@ -4892,6 +5028,12 @@
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="K9:K12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4906,4 +5048,677 @@
     <brk id="27" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454321AB-7B6A-AA47-8859-0872093FFC49}">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2021</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2022</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2022</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2022</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2022</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2022</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>